--- a/analysis/pre_gemini_data/participant340/easy.xlsx
+++ b/analysis/pre_gemini_data/participant340/easy.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,92 +422,88 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>condboy</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>condstate</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>literal2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>literal3</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>methoddec</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>ummary</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
@@ -559,10 +543,10 @@
         <v>14</v>
       </c>
       <c r="C3" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E3" t="n">
         <v>28</v>
@@ -583,7 +567,7 @@
         <v>20</v>
       </c>
       <c r="K3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" t="n">
         <v>27</v>
@@ -592,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="N3" t="n">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="O3" t="n">
         <v>5</v>
@@ -617,10 +601,10 @@
         <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D4" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E4" t="n">
         <v>82</v>
@@ -641,7 +625,7 @@
         <v>26</v>
       </c>
       <c r="K4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L4" t="n">
         <v>41</v>
@@ -650,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="N4" t="n">
-        <v>529</v>
+        <v>351</v>
       </c>
       <c r="O4" t="n">
         <v>6</v>
@@ -733,10 +717,10 @@
         <v>5067.7</v>
       </c>
       <c r="C6" t="n">
-        <v>69710.53</v>
+        <v>68842.99000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>39479.34</v>
+        <v>39078.91</v>
       </c>
       <c r="E6" t="n">
         <v>24860.03</v>
@@ -757,7 +741,7 @@
         <v>8408.25</v>
       </c>
       <c r="K6" t="n">
-        <v>4370.31</v>
+        <v>4220.13</v>
       </c>
       <c r="L6" t="n">
         <v>13185.57</v>
@@ -766,7 +750,7 @@
         <v>3423.42</v>
       </c>
       <c r="N6" t="n">
-        <v>174686.55</v>
+        <v>126217.96</v>
       </c>
       <c r="O6" t="n">
         <v>1280.07</v>
@@ -788,55 +772,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.11</v>
+        <v>1.6</v>
       </c>
       <c r="C7" t="n">
-        <v>15.27</v>
+        <v>21.73</v>
       </c>
       <c r="D7" t="n">
-        <v>8.65</v>
+        <v>12.34</v>
       </c>
       <c r="E7" t="n">
-        <v>5.44</v>
+        <v>7.85</v>
       </c>
       <c r="F7" t="n">
         <v>21.52</v>
       </c>
       <c r="G7" t="n">
-        <v>2.02</v>
+        <v>2.91</v>
       </c>
       <c r="H7" t="n">
-        <v>0.72</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>2.53</v>
+        <v>3.65</v>
       </c>
       <c r="J7" t="n">
-        <v>1.84</v>
+        <v>2.65</v>
       </c>
       <c r="K7" t="n">
-        <v>0.96</v>
+        <v>1.33</v>
       </c>
       <c r="L7" t="n">
-        <v>2.89</v>
+        <v>4.16</v>
       </c>
       <c r="M7" t="n">
-        <v>0.75</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>38.26</v>
+        <v>39.84</v>
       </c>
       <c r="O7" t="n">
-        <v>0.28</v>
+        <v>0.4</v>
       </c>
       <c r="P7" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="R7" t="n">
-        <v>0.36</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="8">
@@ -849,10 +833,10 @@
         <v>281.54</v>
       </c>
       <c r="C8" t="n">
-        <v>283.38</v>
+        <v>285.66</v>
       </c>
       <c r="D8" t="n">
-        <v>268.57</v>
+        <v>269.51</v>
       </c>
       <c r="E8" t="n">
         <v>303.17</v>
@@ -873,7 +857,7 @@
         <v>323.39</v>
       </c>
       <c r="K8" t="n">
-        <v>273.14</v>
+        <v>281.34</v>
       </c>
       <c r="L8" t="n">
         <v>321.6</v>
@@ -882,7 +866,7 @@
         <v>285.29</v>
       </c>
       <c r="N8" t="n">
-        <v>330.22</v>
+        <v>359.6</v>
       </c>
       <c r="O8" t="n">
         <v>213.34</v>
@@ -975,66 +959,6 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
